--- a/artfynd/A 16885-2022.xlsx
+++ b/artfynd/A 16885-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69623843</v>
+        <v>69623867</v>
       </c>
       <c r="B2" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>400160.2169516565</v>
+        <v>400592.8898661289</v>
       </c>
       <c r="R2" t="n">
-        <v>6739725.882952046</v>
+        <v>6739831.101304529</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69623846</v>
+        <v>69623851</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>400325.1187917067</v>
+        <v>400558.1253763044</v>
       </c>
       <c r="R3" t="n">
-        <v>6739724.211813147</v>
+        <v>6739813.010787125</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69623867</v>
+        <v>69623843</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>400592.8898661289</v>
+        <v>400160.2169516565</v>
       </c>
       <c r="R4" t="n">
-        <v>6739831.101304529</v>
+        <v>6739725.882952046</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69623848</v>
+        <v>69623846</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69623847</v>
+        <v>69623848</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69623851</v>
+        <v>69623847</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>400558.1253763044</v>
+        <v>400325.1187917067</v>
       </c>
       <c r="R7" t="n">
-        <v>6739813.010787125</v>
+        <v>6739724.211813147</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 16885-2022.xlsx
+++ b/artfynd/A 16885-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>69623867</v>
+        <v>69623843</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>400592.8898661289</v>
+        <v>400160.2169516565</v>
       </c>
       <c r="R2" t="n">
-        <v>6739831.101304529</v>
+        <v>6739725.882952046</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69623851</v>
+        <v>69623846</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>400558.1253763044</v>
+        <v>400325.1187917067</v>
       </c>
       <c r="R3" t="n">
-        <v>6739813.010787125</v>
+        <v>6739724.211813147</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69623843</v>
+        <v>69623867</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>400160.2169516565</v>
+        <v>400592.8898661289</v>
       </c>
       <c r="R4" t="n">
-        <v>6739725.882952046</v>
+        <v>6739831.101304529</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69623846</v>
+        <v>69623848</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69623848</v>
+        <v>69623847</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69623847</v>
+        <v>69623851</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>400325.1187917067</v>
+        <v>400558.1253763044</v>
       </c>
       <c r="R7" t="n">
-        <v>6739724.211813147</v>
+        <v>6739813.010787125</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
